--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H2">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N2">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q2">
-        <v>10.38575821316517</v>
+        <v>16.55503678733334</v>
       </c>
       <c r="R2">
-        <v>10.38575821316517</v>
+        <v>148.995331086</v>
       </c>
       <c r="S2">
-        <v>0.2236488360707247</v>
+        <v>0.1844310076622395</v>
       </c>
       <c r="T2">
-        <v>0.2236488360707247</v>
+        <v>0.1844310076622395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H3">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N3">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q3">
-        <v>7.689523769317598</v>
+        <v>17.85420649714333</v>
       </c>
       <c r="R3">
-        <v>7.689523769317598</v>
+        <v>160.68785847429</v>
       </c>
       <c r="S3">
-        <v>0.1655876254432789</v>
+        <v>0.1989043780197036</v>
       </c>
       <c r="T3">
-        <v>0.1655876254432789</v>
+        <v>0.1989043780197036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.2417192276463</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H4">
-        <v>8.2417192276463</v>
+        <v>24.89943</v>
       </c>
       <c r="I4">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J4">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N4">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O4">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P4">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q4">
-        <v>12.17374646502415</v>
+        <v>18.35807307866667</v>
       </c>
       <c r="R4">
-        <v>12.17374646502415</v>
+        <v>165.222657708</v>
       </c>
       <c r="S4">
-        <v>0.2621517054066864</v>
+        <v>0.2045176921156758</v>
       </c>
       <c r="T4">
-        <v>0.2621517054066864</v>
+        <v>0.2045176921156758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.2417192276463</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H5">
-        <v>8.2417192276463</v>
+        <v>24.89943</v>
       </c>
       <c r="I5">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J5">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N5">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O5">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P5">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q5">
-        <v>9.01333449933267</v>
+        <v>19.79873749884667</v>
       </c>
       <c r="R5">
-        <v>9.01333449933267</v>
+        <v>178.18863748962</v>
       </c>
       <c r="S5">
-        <v>0.1940948102697565</v>
+        <v>0.2205673810490298</v>
       </c>
       <c r="T5">
-        <v>0.1940948102697565</v>
+        <v>0.2205673810490299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8795020520474101</v>
+        <v>0.493317</v>
       </c>
       <c r="H6">
-        <v>0.8795020520474101</v>
+        <v>1.479951</v>
       </c>
       <c r="I6">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J6">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N6">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O6">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P6">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q6">
-        <v>1.299102129223024</v>
+        <v>1.0911514284</v>
       </c>
       <c r="R6">
-        <v>1.299102129223024</v>
+        <v>9.820362855600001</v>
       </c>
       <c r="S6">
-        <v>0.02797510525225133</v>
+        <v>0.01215594746402976</v>
       </c>
       <c r="T6">
-        <v>0.02797510525225133</v>
+        <v>0.01215594746402976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8795020520474101</v>
+        <v>0.493317</v>
       </c>
       <c r="H7">
-        <v>0.8795020520474101</v>
+        <v>1.479951</v>
       </c>
       <c r="I7">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J7">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N7">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O7">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P7">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q7">
-        <v>0.9618437572298482</v>
+        <v>1.176780406626</v>
       </c>
       <c r="R7">
-        <v>0.9618437572298482</v>
+        <v>10.591023659634</v>
       </c>
       <c r="S7">
-        <v>0.02071252116322757</v>
+        <v>0.01310989513217342</v>
       </c>
       <c r="T7">
-        <v>0.02071252116322757</v>
+        <v>0.01310989513217342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.91172127598186</v>
+        <v>0.2771763333333333</v>
       </c>
       <c r="H8">
-        <v>1.91172127598186</v>
+        <v>0.831529</v>
       </c>
       <c r="I8">
-        <v>0.1058293963940747</v>
+        <v>0.01419593001942512</v>
       </c>
       <c r="J8">
-        <v>0.1058293963940747</v>
+        <v>0.01419593001942512</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N8">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O8">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P8">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q8">
-        <v>2.823780995538956</v>
+        <v>0.6130770924888889</v>
       </c>
       <c r="R8">
-        <v>2.823780995538956</v>
+        <v>5.5176938324</v>
       </c>
       <c r="S8">
-        <v>0.06080782163505158</v>
+        <v>0.006829971288790778</v>
       </c>
       <c r="T8">
-        <v>0.06080782163505158</v>
+        <v>0.006829971288790778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,309 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.831529</v>
+      </c>
+      <c r="I9">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J9">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.385444666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.156333999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="P9">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="Q9">
+        <v>0.6611888060762221</v>
+      </c>
+      <c r="R9">
+        <v>5.950699254686</v>
+      </c>
+      <c r="S9">
+        <v>0.007365958730634344</v>
+      </c>
+      <c r="T9">
+        <v>0.007365958730634344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.783958</v>
+      </c>
+      <c r="I10">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J10">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.211866666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.6356</v>
+      </c>
+      <c r="O10">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="P10">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="Q10">
+        <v>2.052581300533334</v>
+      </c>
+      <c r="R10">
+        <v>18.4732317048</v>
+      </c>
+      <c r="S10">
+        <v>0.02286673490545657</v>
+      </c>
+      <c r="T10">
+        <v>0.02286673490545657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="H9">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="I9">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="J9">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.09362309614941</v>
-      </c>
-      <c r="N9">
-        <v>1.09362309614941</v>
-      </c>
-      <c r="O9">
-        <v>0.4254165316352861</v>
-      </c>
-      <c r="P9">
-        <v>0.4254165316352861</v>
-      </c>
-      <c r="Q9">
-        <v>2.090702540813982</v>
-      </c>
-      <c r="R9">
-        <v>2.090702540813982</v>
-      </c>
-      <c r="S9">
-        <v>0.0450215747590231</v>
-      </c>
-      <c r="T9">
-        <v>0.0450215747590231</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.783958</v>
+      </c>
+      <c r="I11">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J11">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.385444666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.156333999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="P11">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="Q11">
+        <v>2.213659254441333</v>
+      </c>
+      <c r="R11">
+        <v>19.922933289972</v>
+      </c>
+      <c r="S11">
+        <v>0.02466122015686684</v>
+      </c>
+      <c r="T11">
+        <v>0.02466122015686684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.042122</v>
+      </c>
+      <c r="H12">
+        <v>6.126366</v>
+      </c>
+      <c r="I12">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J12">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.211866666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.6356</v>
+      </c>
+      <c r="O12">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="P12">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="Q12">
+        <v>4.516901581066668</v>
+      </c>
+      <c r="R12">
+        <v>40.6521142296</v>
+      </c>
+      <c r="S12">
+        <v>0.05032043847493473</v>
+      </c>
+      <c r="T12">
+        <v>0.05032043847493474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.042122</v>
+      </c>
+      <c r="H13">
+        <v>6.126366</v>
+      </c>
+      <c r="I13">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J13">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.385444666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.156333999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="P13">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="Q13">
+        <v>4.871369033582666</v>
+      </c>
+      <c r="R13">
+        <v>43.842321302244</v>
+      </c>
+      <c r="S13">
+        <v>0.05426937500046469</v>
+      </c>
+      <c r="T13">
+        <v>0.0542693750004647</v>
       </c>
     </row>
   </sheetData>
